--- a/backend/users.xlsx
+++ b/backend/users.xlsx
@@ -418,7 +418,7 @@
         <v>bhuvana@ssn.edu.in</v>
       </c>
       <c r="B2" t="str">
-        <v>$2b$10$6GqeU1vOXFoW28cT9e9JYO5Of362UJuned/Rejm5jvI76zS4WeAoy</v>
+        <v>$2b$10$X0geKBQtQPZDrW/mLnPVDOiegL9j4yIlb0V3ka5.tGAf0OhE7Kq.q</v>
       </c>
     </row>
     <row r="3">
@@ -426,7 +426,7 @@
         <v>someone@ssn.edu.in</v>
       </c>
       <c r="B3" t="str">
-        <v>$2b$10$67r3RarvQnIVfr7o.dvci.ZlAXGB9gOjh6xC7GXMdqfnuoFJlmxjK</v>
+        <v>$2b$10$N9jj04UgnrzDnCDUBoCpM.LQrwx0vWx5I8AkSatdc3jiihwyB7EWm</v>
       </c>
     </row>
   </sheetData>
